--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_5_var_Block_Bootstrapping.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_5_var_Block_Bootstrapping.xlsx
@@ -429,16 +429,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>95.03599576443746</v>
+        <v>92.62231230044235</v>
       </c>
       <c r="C2">
-        <v>93.66902306161593</v>
+        <v>92.13548435394372</v>
       </c>
       <c r="D2">
-        <v>93.24998152646081</v>
+        <v>90.01252588952323</v>
       </c>
       <c r="E2">
-        <v>93.10445704458958</v>
+        <v>92.51996281739414</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -446,16 +446,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>99.27026811784999</v>
+        <v>98.49886966425875</v>
       </c>
       <c r="C3">
-        <v>99.15870182677922</v>
+        <v>97.46262661849083</v>
       </c>
       <c r="D3">
-        <v>99.35445163845817</v>
+        <v>98.39605930508836</v>
       </c>
       <c r="E3">
-        <v>99.26245089971431</v>
+        <v>98.1113544923256</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -463,16 +463,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>99.07808370335812</v>
+        <v>99.22649049131337</v>
       </c>
       <c r="C4">
-        <v>99.01336651278186</v>
+        <v>99.16043794794793</v>
       </c>
       <c r="D4">
-        <v>98.9445623670987</v>
+        <v>99.24435836521205</v>
       </c>
       <c r="E4">
-        <v>99.04103072431346</v>
+        <v>99.26908377696874</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -480,16 +480,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>98.46957259663991</v>
+        <v>98.71270779674394</v>
       </c>
       <c r="C5">
-        <v>98.53722553646999</v>
+        <v>98.72924675671565</v>
       </c>
       <c r="D5">
-        <v>98.53050584544991</v>
+        <v>98.7149701986567</v>
       </c>
       <c r="E5">
-        <v>98.51538062725194</v>
+        <v>98.69679794927404</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -497,16 +497,16 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>98.0968378998875</v>
+        <v>98.30911481604721</v>
       </c>
       <c r="C6">
-        <v>97.927086068604</v>
+        <v>98.20710235099992</v>
       </c>
       <c r="D6">
-        <v>98.00296005544469</v>
+        <v>98.23620060404036</v>
       </c>
       <c r="E6">
-        <v>98.06534693252711</v>
+        <v>98.18310202875765</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -514,16 +514,16 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>97.12974029543155</v>
+        <v>97.25502922678261</v>
       </c>
       <c r="C7">
-        <v>97.11400403764357</v>
+        <v>97.25175620981535</v>
       </c>
       <c r="D7">
-        <v>97.06359705776035</v>
+        <v>97.29418695927653</v>
       </c>
       <c r="E7">
-        <v>97.05035784163934</v>
+        <v>97.27983962192604</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -531,16 +531,16 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>95.74081172795509</v>
+        <v>95.89108503202644</v>
       </c>
       <c r="C8">
-        <v>95.70152915921723</v>
+        <v>95.86849104052054</v>
       </c>
       <c r="D8">
-        <v>95.71905376194979</v>
+        <v>95.87431958803579</v>
       </c>
       <c r="E8">
-        <v>95.59777617224427</v>
+        <v>95.82466499915455</v>
       </c>
     </row>
   </sheetData>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_5_var_Block_Bootstrapping.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_5_var_Block_Bootstrapping.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Var=0.2</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>d=5</t>
+  </si>
+  <si>
+    <t>d=6</t>
   </si>
   <si>
     <t>d=7</t>
@@ -404,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -514,16 +517,16 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>97.25502922678261</v>
+        <v>97.66953063507813</v>
       </c>
       <c r="C7">
-        <v>97.25175620981535</v>
+        <v>97.74191145685968</v>
       </c>
       <c r="D7">
-        <v>97.29418695927653</v>
+        <v>97.77519072208368</v>
       </c>
       <c r="E7">
-        <v>97.27983962192604</v>
+        <v>97.73734215087228</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -531,15 +534,32 @@
         <v>10</v>
       </c>
       <c r="B8">
+        <v>97.25502922678261</v>
+      </c>
+      <c r="C8">
+        <v>97.25175620981535</v>
+      </c>
+      <c r="D8">
+        <v>97.29418695927653</v>
+      </c>
+      <c r="E8">
+        <v>97.27983962192604</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
         <v>95.89108503202644</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>95.86849104052054</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>95.87431958803579</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>95.82466499915455</v>
       </c>
     </row>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_5_var_Block_Bootstrapping.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_5_var_Block_Bootstrapping.xlsx
@@ -432,16 +432,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>92.62231230044235</v>
+        <v>92.6317602074611</v>
       </c>
       <c r="C2">
-        <v>92.13548435394372</v>
+        <v>92.14546699825243</v>
       </c>
       <c r="D2">
-        <v>90.01252588952323</v>
+        <v>90.00696453232483</v>
       </c>
       <c r="E2">
-        <v>92.51996281739414</v>
+        <v>92.52426056004643</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -449,16 +449,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>98.49886966425875</v>
+        <v>98.49830909693215</v>
       </c>
       <c r="C3">
-        <v>97.46262661849083</v>
+        <v>97.46376620635135</v>
       </c>
       <c r="D3">
-        <v>98.39605930508836</v>
+        <v>98.39621761805462</v>
       </c>
       <c r="E3">
-        <v>98.1113544923256</v>
+        <v>98.11122075468573</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -466,16 +466,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>99.22649049131337</v>
+        <v>99.2263278418861</v>
       </c>
       <c r="C4">
-        <v>99.16043794794793</v>
+        <v>99.16072329807571</v>
       </c>
       <c r="D4">
-        <v>99.24435836521205</v>
+        <v>99.24460985935852</v>
       </c>
       <c r="E4">
-        <v>99.26908377696874</v>
+        <v>99.26863685356672</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -483,16 +483,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>98.71270779674394</v>
+        <v>98.71196478810971</v>
       </c>
       <c r="C5">
-        <v>98.72924675671565</v>
+        <v>98.72885904061765</v>
       </c>
       <c r="D5">
-        <v>98.7149701986567</v>
+        <v>98.71467993312679</v>
       </c>
       <c r="E5">
-        <v>98.69679794927404</v>
+        <v>98.69680091019751</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -500,16 +500,16 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>98.30911481604721</v>
+        <v>98.3120559264534</v>
       </c>
       <c r="C6">
-        <v>98.20710235099992</v>
+        <v>98.20502330782047</v>
       </c>
       <c r="D6">
-        <v>98.23620060404036</v>
+        <v>98.23638128680922</v>
       </c>
       <c r="E6">
-        <v>98.18310202875765</v>
+        <v>98.18385245356703</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -517,16 +517,16 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>97.66953063507813</v>
+        <v>97.71966316302193</v>
       </c>
       <c r="C7">
-        <v>97.74191145685968</v>
+        <v>97.73529062291912</v>
       </c>
       <c r="D7">
-        <v>97.77519072208368</v>
+        <v>97.77542735833339</v>
       </c>
       <c r="E7">
-        <v>97.73734215087228</v>
+        <v>97.711875317159</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -534,16 +534,16 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>97.25502922678261</v>
+        <v>97.25859628670493</v>
       </c>
       <c r="C8">
-        <v>97.25175620981535</v>
+        <v>97.22156674004633</v>
       </c>
       <c r="D8">
-        <v>97.29418695927653</v>
+        <v>97.26587962437384</v>
       </c>
       <c r="E8">
-        <v>97.27983962192604</v>
+        <v>97.21392745665615</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -551,16 +551,16 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>95.89108503202644</v>
+        <v>95.89971400377856</v>
       </c>
       <c r="C9">
-        <v>95.86849104052054</v>
+        <v>95.88410862621126</v>
       </c>
       <c r="D9">
-        <v>95.87431958803579</v>
+        <v>95.88266255201073</v>
       </c>
       <c r="E9">
-        <v>95.82466499915455</v>
+        <v>95.91582352285025</v>
       </c>
     </row>
   </sheetData>
